--- a/Veda Patwardhan Letter Deadlines.xlsx
+++ b/Veda Patwardhan Letter Deadlines.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vedavati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403B0F9-6515-4228-8666-21B11E036C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4DED55-337C-4C07-8D41-F65B7CB51CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Letter Requests" sheetId="1" r:id="rId1"/>
+    <sheet name="OTHER" sheetId="2" r:id="rId1"/>
+    <sheet name="JOE_EJM" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Organization Name</t>
   </si>
@@ -242,9 +244,6 @@
     <t>Only 2 recommendation letters needed - Leigh &amp; MK.</t>
   </si>
   <si>
-    <t>Request sent to you on 11/05/2020</t>
-  </si>
-  <si>
     <t>I will send you a request through JOE; they ask me to apply for the position on IMPAQs website before requesting letters. "Reference letters may be addressed to Hiring Committee"</t>
   </si>
   <si>
@@ -277,6 +276,17 @@
 Writing skills; Analytical skills; Ability to form new and creative ideas and research questions;
 Ability to work in an interdisciplinary environment; Referees may provide any additional, related comments that they believe will help reviewers evaluate the merit of the applicant.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected candidates possess:
+a strong record of academic training
+a commitment to population and development work
+the demonstrated ability to work independently
+leadership potential
+Bell Fellows examine a broad range of critical issues in the field of population and development studies from multidisciplinary perspectives. </t>
+  </si>
+  <si>
+    <t>Send request to Leigh and MK</t>
   </si>
 </sst>
 </file>
@@ -661,12 +671,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568EF55B-7606-4B39-A5CB-8904B8E057C3}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44173</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399292-945E-4B51-9D3F-2A4D1944E9F9}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -720,7 +892,7 @@
         <v>44150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -798,7 +970,7 @@
         <v>44165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -814,139 +986,6 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44165</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44169</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44173</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -956,11 +995,85 @@
     <hyperlink ref="E4" r:id="rId3" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465592&amp;q=eNplj0FuwkAMRe_idZDSSLDIASpV6g0QsoYZN0wxnsiegALi7nVasurS79vf_z_gM1vNMth70Qv0D8iCIdZ8JeihhQbONN-KJjQKGk8OnRn5RhHo97D1cQeHBr6JoZeJuYFsNi3nXdu1m7bzjaJ5yBL4458SyyRVZ1Qafh3_HCxcXCnhV-FEaiuMQVJOoRJa1HA5Mq2KUiSpWITnFfGrFnp2Ujy64NWc1WmJjnf_zePodLu0HMPgbm_P5w8HLVt4" xr:uid="{83090458-DEC5-4C23-8006-3152E7821D64}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{064693E9-838F-4DF3-9507-E9D487E3A03A}"/>
     <hyperlink ref="E3" r:id="rId5" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465829&amp;q=eNplj0Fqw0AMRe-itQvGkC58gEKhNyhFKDOKO62iMdI4xYTcPXIbr7rU-9LX_1d4K96KTv5S7QzjFYpcIqVWLgwj9NDBN68_1TI6k6XPgMGcY6MqjO9wiPEZPjr4YoFRF5EOivuynQ_90D_1Q2xUK1NRktd_SqqLNlvRePp1_HNwunDGU5XM5jtMpLlkaoyejM5H4V0xTqwNq8q6I3nUwsjOhscQolqwtmzRkeK3zHPQw9ZypunhdrvdARq-XFzp" xr:uid="{35F8AECA-F74D-4AC0-AFC9-84BC8E7B3061}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72643990-0301-4A51-9056-98DA050381D9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="32.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>